--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AEFFCA-99E7-4FC1-88E7-B17BF802797E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AC52E-A2F8-42B1-A4CA-29E0F2C45CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>dailyTimes</t>
-  </si>
-  <si>
-    <t>waveID</t>
   </si>
   <si>
     <t>字段描述</t>
@@ -278,19 +275,55 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2,1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[]int32</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2,1,3</t>
+    <t>1,2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2,1,3,8</t>
+    <t>1,2,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,8,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,3,1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布阵ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布阵点ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,12 +669,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -702,6 +741,89 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -716,9 +838,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:Y24" totalsRowShown="0">
-  <autoFilter ref="C1:Y24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:AA24" totalsRowShown="0">
+  <autoFilter ref="C1:AA24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="关卡id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置关卡id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
@@ -739,6 +861,8 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="通关掉落id"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="成就奖励id"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="每日挑战次数"/>
+    <tableColumn id="24" xr3:uid="{94CBA06A-BFB9-4E67-B721-55DDDD41C4E4}" name="场景ID" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{79F9BC5C-CF27-4750-BC66-263073A37834}" name="布阵ID" dataDxfId="2"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="波数ID"/>
     <tableColumn id="22" xr3:uid="{749E6A9A-F1D8-440F-BADD-DA6A3AEE6039}" name="友军上阵_x000a_英雄数量" dataDxfId="1"/>
     <tableColumn id="23" xr3:uid="{44E7FE64-368D-4B71-B391-B40E57D3C828}" name="必上英雄" dataDxfId="0"/>
@@ -1005,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1031,13 +1155,13 @@
     <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="22" max="24" width="14" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.5">
+    <row r="1" spans="1:27" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1105,16 +1229,22 @@
         <v>21</v>
       </c>
       <c r="W1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="42.75">
+      <c r="Z1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -1143,15 +1273,17 @@
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
-      <c r="W2" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1210,21 +1342,27 @@
         <v>43</v>
       </c>
       <c r="W3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="28.5">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="28.5">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
@@ -1236,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
@@ -1251,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>13</v>
@@ -1263,7 +1401,7 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S4" s="25" t="s">
         <v>18</v>
@@ -1278,18 +1416,24 @@
         <v>21</v>
       </c>
       <c r="W4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1297,14 +1441,14 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -1320,76 +1464,84 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="I6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="J6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="L6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1001001</v>
@@ -1407,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="13">
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="13">
         <v>1</v>
@@ -1450,23 +1602,29 @@
       <c r="V7" s="28">
         <v>10</v>
       </c>
-      <c r="W7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="29">
+      <c r="W7" s="34">
+        <v>1</v>
+      </c>
+      <c r="X7" s="34">
+        <v>100101</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="B8" s="8"/>
       <c r="C8" s="7">
         <v>1001002</v>
       </c>
       <c r="D8" s="7">
-        <v>1001001</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="11">
         <v>-1</v>
@@ -1478,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" s="14">
         <v>1</v>
@@ -1521,22 +1679,28 @@
       <c r="V8" s="14">
         <v>10</v>
       </c>
-      <c r="W8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" s="29">
+      <c r="W8" s="35">
+        <v>1</v>
+      </c>
+      <c r="X8" s="35">
+        <v>100201</v>
+      </c>
+      <c r="Y8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" s="29">
         <v>2</v>
       </c>
-      <c r="Y8" s="29" t="s">
+      <c r="AA8" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:27">
       <c r="C9" s="7">
         <v>1001003</v>
       </c>
       <c r="D9" s="7">
-        <v>1001002</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="11">
         <v>-1</v>
@@ -1548,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="J9" s="13">
         <v>2</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="13">
         <v>1</v>
@@ -1591,22 +1755,28 @@
       <c r="V9" s="28">
         <v>10</v>
       </c>
-      <c r="W9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="29">
+      <c r="W9" s="34">
+        <v>1</v>
+      </c>
+      <c r="X9" s="34">
+        <v>100301</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="29">
         <v>3</v>
       </c>
-      <c r="Y9" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="AA9" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="C10" s="7">
         <v>1001004</v>
       </c>
       <c r="D10" s="7">
-        <v>1001003</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="11">
         <v>-1</v>
@@ -1618,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="J10" s="14">
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="14">
         <v>1</v>
@@ -1661,22 +1831,28 @@
       <c r="V10" s="14">
         <v>10</v>
       </c>
-      <c r="W10" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="X10" s="29">
+      <c r="W10" s="35">
+        <v>1</v>
+      </c>
+      <c r="X10" s="35">
+        <v>100401</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="29">
         <v>4</v>
       </c>
-      <c r="Y10" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="AA10" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="C11" s="7">
         <v>1001005</v>
       </c>
       <c r="D11" s="7">
-        <v>1001004</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="11">
         <v>-1</v>
@@ -1688,16 +1864,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="13">
         <v>1</v>
@@ -1731,15 +1907,23 @@
       <c r="V11" s="28">
         <v>10</v>
       </c>
-      <c r="W11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="X11" s="29">
+      <c r="W11" s="34">
+        <v>1</v>
+      </c>
+      <c r="X11" s="34">
+        <v>100501</v>
+      </c>
+      <c r="Y11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="29">
         <v>4</v>
       </c>
-      <c r="Y11" s="29"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="AA11" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
@@ -1760,11 +1944,13 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -1785,11 +1971,13 @@
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
       <c r="Y13" s="28"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
@@ -1810,11 +1998,13 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
@@ -1835,11 +2025,13 @@
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
       <c r="Y15" s="28"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11"/>
@@ -1860,11 +2052,13 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
       <c r="Y16" s="14"/>
-    </row>
-    <row r="17" spans="3:25">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+    </row>
+    <row r="17" spans="3:27">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
@@ -1885,11 +2079,13 @@
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
       <c r="Y17" s="28"/>
-    </row>
-    <row r="18" spans="3:25">
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+    </row>
+    <row r="18" spans="3:27">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -1910,11 +2106,13 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="14"/>
-    </row>
-    <row r="19" spans="3:25">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -1935,11 +2133,13 @@
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
       <c r="Y19" s="28"/>
-    </row>
-    <row r="20" spans="3:25">
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+    </row>
+    <row r="20" spans="3:27">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -1960,11 +2160,13 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="14"/>
-    </row>
-    <row r="21" spans="3:25">
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+    </row>
+    <row r="21" spans="3:27">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="11"/>
@@ -1985,11 +2187,13 @@
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
       <c r="Y21" s="28"/>
-    </row>
-    <row r="22" spans="3:25">
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+    </row>
+    <row r="22" spans="3:27">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
@@ -2010,11 +2214,13 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="3:25">
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+    </row>
+    <row r="23" spans="3:27">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
@@ -2035,11 +2241,13 @@
       <c r="T23" s="28"/>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="28"/>
-    </row>
-    <row r="24" spans="3:25">
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+    </row>
+    <row r="24" spans="3:27">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="11"/>
@@ -2060,9 +2268,11 @@
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
